--- a/data/trans_bre/P17G_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P17G_R-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-1.653116951640976</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-1.058882354048574</v>
+        <v>-1.058882354048585</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.00656063450042989</v>
@@ -649,7 +649,7 @@
         <v>-0.01717216373902115</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.01080796602364608</v>
+        <v>-0.01080796602364619</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.375852634442828</v>
+        <v>-4.079655318236222</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.08358317016830791</v>
+        <v>0.05130504042921735</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.353874719560106</v>
+        <v>-6.500993583533454</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.711493575786957</v>
+        <v>-3.61431771075632</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.04488710067394529</v>
+        <v>-0.04137080004914529</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0008077309174334231</v>
+        <v>0.0008483361315573144</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.06496449527163004</v>
+        <v>-0.06623115974019653</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.03745525004106583</v>
+        <v>-0.03658686108813371</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.660492671857977</v>
+        <v>3.892657235237662</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.912879039251184</v>
+        <v>7.17484062173915</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.971110593154618</v>
+        <v>2.181946891285846</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.182697977088289</v>
+        <v>2.523523843494152</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.03867254522731395</v>
+        <v>0.04160506028373699</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07501641166930773</v>
+        <v>0.07843240963048596</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02066393667539957</v>
+        <v>0.02391029864035686</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.02296275462944923</v>
+        <v>0.02600950545534601</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>5.506595437517847</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4.790824276978666</v>
+        <v>4.790824276978645</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01234173686732317</v>
@@ -749,7 +749,7 @@
         <v>0.06083534183673398</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.05517320078848573</v>
+        <v>0.05517320078848546</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.77359714224311</v>
+        <v>-3.814154966892327</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.353990013024829</v>
+        <v>-1.837132993564038</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.470118752757774</v>
+        <v>1.43609461527225</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.9614479317124539</v>
+        <v>-1.22522399422852</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.04004174096129519</v>
+        <v>-0.04018550097809297</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.02432172003926597</v>
+        <v>-0.01898167246896756</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01557614359177235</v>
+        <v>0.01537577117710192</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.009816394450947754</v>
+        <v>-0.01332129270392387</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.098167217732872</v>
+        <v>6.911978602569993</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.065632889698418</v>
+        <v>6.847509696503963</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10.5040574981072</v>
+        <v>10.28094392552916</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11.20197736503197</v>
+        <v>11.58432243953139</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.06849050980856861</v>
+        <v>0.07804803001062884</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06781541706384732</v>
+        <v>0.07703084262281745</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1201424994474763</v>
+        <v>0.1178492410556825</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1366245911079014</v>
+        <v>0.1441195569426025</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-0.2112609095896611</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1.415857387753683</v>
+        <v>1.415857387753705</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04736960574361087</v>
@@ -849,7 +849,7 @@
         <v>-0.002248910196974472</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.01649149724963052</v>
+        <v>0.01649149724963078</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.306959845376375</v>
+        <v>-2.726128690565403</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.409751720851432</v>
+        <v>1.173958493914612</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.688977845162546</v>
+        <v>-4.651633801508686</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.068050343919341</v>
+        <v>-6.13235884482794</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.02475526724728312</v>
+        <v>-0.02895496812497038</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01484796481214028</v>
+        <v>0.01256282416762483</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.04860351478932282</v>
+        <v>-0.04810454090741538</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.06779129270395548</v>
+        <v>-0.06731869765469775</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.7697598035457</v>
+        <v>11.30459725628082</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.36678624186156</v>
+        <v>11.55648398414044</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.782357016987976</v>
+        <v>4.810226032053861</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.770794779676599</v>
+        <v>9.55591075262398</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1452574063956157</v>
+        <v>0.1384872851481319</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1298779479695403</v>
+        <v>0.1340338867290874</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05275494812692708</v>
+        <v>0.05282355354971379</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.1215533226877906</v>
+        <v>0.1208639732208444</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>4.994443823838235</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-3.63212378327733</v>
+        <v>-3.632123783277308</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07705105530705089</v>
@@ -949,7 +949,7 @@
         <v>0.05815469870568242</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.04049026268862344</v>
+        <v>-0.04049026268862321</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.055061294854655</v>
+        <v>2.043254679701022</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-3.16447504341216</v>
+        <v>-3.025693150609762</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.017926684905314</v>
+        <v>-0.5529258388554746</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-9.001697460220669</v>
+        <v>-8.522021595862615</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.01239609421966892</v>
+        <v>0.02259333061052711</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.03323671938342943</v>
+        <v>-0.03194458421610613</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.01051918596003453</v>
+        <v>-0.00621446556441813</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.09749911079595776</v>
+        <v>-0.09334210458758395</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>12.37044144277426</v>
+        <v>12.12228270313737</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.133979969721209</v>
+        <v>6.815056684859251</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>11.28798983368844</v>
+        <v>11.44941675600207</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.876928151776214</v>
+        <v>2.042839664217226</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1503588533432527</v>
+        <v>0.1496062304287568</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.08118822117850232</v>
+        <v>0.07648215916414718</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1411040841647251</v>
+        <v>0.1418074682307837</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.02132062523995304</v>
+        <v>0.02377805654718472</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>2.555806507209646</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.3945083070594824</v>
+        <v>0.3945083070594935</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03544072389981508</v>
@@ -1049,7 +1049,7 @@
         <v>0.02799301350711017</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.004408680993777619</v>
+        <v>0.004408680993777743</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.728239506547543</v>
+        <v>0.5470299139223411</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5848651604320048</v>
+        <v>0.5316565115938133</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2760685409198902</v>
+        <v>0.14736995797621</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.562992302102917</v>
+        <v>-2.483042765561517</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.007843968988115462</v>
+        <v>0.005907338153511168</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.006172600779340542</v>
+        <v>0.005692423925582712</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.003141854224443809</v>
+        <v>0.001489309579416163</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.02796405799550163</v>
+        <v>-0.02717051475988625</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.098762964805185</v>
+        <v>6.136894847373447</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.025739462492209</v>
+        <v>5.165168644972313</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.082299873238086</v>
+        <v>5.078845865280402</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.529176209158205</v>
+        <v>3.693717091641782</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.06862271879489125</v>
+        <v>0.06945494597031733</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05502362094033663</v>
+        <v>0.05658305716213519</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05716230975681327</v>
+        <v>0.05648118897905905</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.04043760405540438</v>
+        <v>0.04257052571278817</v>
       </c>
     </row>
     <row r="19">
